--- a/inertia_sim/2030_scenario/dataframes_transparency.xlsx
+++ b/inertia_sim/2030_scenario/dataframes_transparency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Aggr_generation"/>
@@ -501,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>8425</v>
+        <v>6403</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>1534</v>
+        <v>1166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>5234</v>
+        <v>3978</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>2473</v>
+        <v>1879</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>4410</v>
+        <v>3352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>2693</v>
+        <v>2047</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>3428</v>
+        <v>2605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>6813</v>
+        <v>5178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>10111</v>
+        <v>7684</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>2275</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>10106</v>
+        <v>8590</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>5083</v>
+        <v>4321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>5135</v>
+        <v>4365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
@@ -654,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>3617</v>
+        <v>3074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>2731</v>
+        <v>2321</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
@@ -670,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>2201</v>
+        <v>1871</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
@@ -678,7 +678,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>1527</v>
+        <v>1298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
@@ -686,7 +686,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>1770</v>
+        <v>1505</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
@@ -694,7 +694,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>11360</v>
+        <v>9656</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="7">
-        <v>3008</v>
+        <v>2557</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +717,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1017</v>
+        <v>963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>-792</v>
+        <v>-1500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>-1486</v>
+        <v>-1400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>1099</v>
+        <v>-1400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -778,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>620</v>
+        <v>-700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>-432</v>
+        <v>-550</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>377</v>
+        <v>-377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>535</v>
+        <v>-600</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>297</v>
+        <v>-500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">

--- a/inertia_sim/2030_scenario/dataframes_transparency.xlsx
+++ b/inertia_sim/2030_scenario/dataframes_transparency.xlsx
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>6403</v>
+        <v>6066</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>1166</v>
+        <v>1104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>3978</v>
+        <v>3768</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>1879</v>
+        <v>1781</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>3352</v>
+        <v>3175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>2047</v>
+        <v>1939</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>2605</v>
+        <v>2468</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>5178</v>
+        <v>4905</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>7684</v>
+        <v>7280</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>1729</v>
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>-1400</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>-1400</v>
+        <v>-700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>700</v>
+        <v>-700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">

--- a/inertia_sim/2030_scenario/dataframes_transparency.xlsx
+++ b/inertia_sim/2030_scenario/dataframes_transparency.xlsx
@@ -505,7 +505,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -613,8 +613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -722,7 +722,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
